--- a/data/data_formatter.xlsx
+++ b/data/data_formatter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stockage\Code et Développement Informatique\Code\Projets\tryhard-but-slowrun\tryhard-but-slowrun-back\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D2AF6-4166-4A1E-995B-6D84DFB5D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D141844-3976-4C54-9A81-F5FB36A82FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{327AC92E-88DE-44A6-9050-C07D3B569ACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{327AC92E-88DE-44A6-9050-C07D3B569ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="121">
-  <si>
-    <t>Pos X</t>
-  </si>
-  <si>
-    <t>Pos Y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="119">
   <si>
     <t>Case Color</t>
   </si>
   <si>
-    <t>Is Piece</t>
-  </si>
-  <si>
     <t>Control Wh</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>black</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -396,7 +384,13 @@
     <t>Pawnmoved2</t>
   </si>
   <si>
-    <t>Control By Pi,To,Fo,Da Adverse</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Absolute Pin</t>
   </si>
 </sst>
 </file>
@@ -854,76 +848,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB1C851-1DE0-4AAB-89D6-C92823A5FEF3}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O66" sqref="O66"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="14.28515625" style="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="14.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -931,44 +921,41 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="7" t="str">
-        <f>"("&amp;A2&amp;", "&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"', "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;IF(I2="null"," "&amp;I2&amp;","," '"&amp;I2&amp;"',")&amp;" "&amp;IF(J2="null"," "&amp;J2&amp;","," '"&amp;J2&amp;"',")&amp;" "&amp;IF(K2="null"," "&amp;K2&amp;","," '"&amp;K2&amp;"',")&amp;" "&amp;L2&amp;", "&amp;M2&amp;"),"</f>
-        <v>(1, 1, 'black', 'a1', true, 0, 0, false,  'rook',  'r1w',  'white', null, false),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N2" s="7" t="str">
+        <f>"("&amp;A2&amp;", "&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"', "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;IF(H2="null"," "&amp;H2&amp;","," '"&amp;H2&amp;"',")&amp;" "&amp;IF(I2="null"," "&amp;I2&amp;","," '"&amp;I2&amp;"',")&amp;" "&amp;IF(J2="null"," "&amp;J2&amp;","," '"&amp;J2&amp;"',")&amp;" "&amp;K2&amp;", "&amp;L2&amp;"),"</f>
+        <v>(1, 1, 'black', 'a1', 0, 0, false,  'rook',  'r1w',  'white', null, false),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -976,44 +963,41 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>107</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="7" t="str">
-        <f t="shared" ref="O3:O65" si="0">"("&amp;A3&amp;", "&amp;B3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"', "&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;IF(I3="null"," "&amp;I3&amp;","," '"&amp;I3&amp;"',")&amp;" "&amp;IF(J3="null"," "&amp;J3&amp;","," '"&amp;J3&amp;"',")&amp;" "&amp;IF(K3="null"," "&amp;K3&amp;","," '"&amp;K3&amp;"',")&amp;" "&amp;L3&amp;", "&amp;M3&amp;"),"</f>
-        <v>(2, 1, 'white', 'b1', true, 0, 0, false,  'knight',  'c1w',  'white', null, null),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N3" s="7" t="str">
+        <f t="shared" ref="N3:N65" si="0">"("&amp;A3&amp;", "&amp;B3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"', "&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;IF(H3="null"," "&amp;H3&amp;","," '"&amp;H3&amp;"',")&amp;" "&amp;IF(I3="null"," "&amp;I3&amp;","," '"&amp;I3&amp;"',")&amp;" "&amp;IF(J3="null"," "&amp;J3&amp;","," '"&amp;J3&amp;"',")&amp;" "&amp;K3&amp;", "&amp;L3&amp;"),"</f>
+        <v>(2, 1, 'white', 'b1', 0, 0, false,  'knight',  'c1w',  'white', null, null),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1021,44 +1005,41 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 1, 'black', 'c1', true, 0, 0, false,  'bishop',  'b1w',  'white', null, null),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 1, 'black', 'c1', 0, 0, false,  'bishop',  'b1w',  'white', null, null),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1066,44 +1047,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 1, 'white', 'd1', true, 0, 0, false,  'queen',  'q1w',  'white', null, null),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 1, 'white', 'd1', 0, 0, false,  'queen',  'q1w',  'white', null, null),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1111,89 +1089,83 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 1, 'black', 'e1', 0, 0, false,  'king',  'k1w',  'white', null, false),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, 1, 'black', 'e1', true, 0, 0, false,  'king',  'k1w',  'white', null, false),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 1, 'white', 'f1', true, 0, 0, false,  'bishop',  'b2w',  'white', null, null),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 1, 'white', 'f1', 0, 0, false,  'bishop',  'b2w',  'white', null, null),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1201,44 +1173,41 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 1, 'black', 'g1', true, 0, 0, false,  'knight',  'c2w',  'white', null, null),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 1, 'black', 'g1', 0, 0, false,  'knight',  'c2w',  'white', null, null),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1246,44 +1215,41 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, 1, 'white', 'h1', true, 0, 0, false,  'rook',  'r2w',  'white', null, false),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 1, 'white', 'h1', 0, 0, false,  'rook',  'r2w',  'white', null, false),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1291,44 +1257,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 2, 'white', 'a2', true, 0, 0, false,  'pawn',  'p1w',  'white', false, null),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 2, 'white', 'a2', 0, 0, false,  'pawn',  'p1w',  'white', false, false),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1336,44 +1299,41 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(2, 2, 'black', 'b2', true, 0, 0, false,  'pawn',  'p2w',  'white', false, null),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 2, 'black', 'b2', 0, 0, false,  'pawn',  'p2w',  'white', false, false),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -1381,44 +1341,41 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 2, 'white', 'c2', true, 0, 0, false,  'pawn',  'p3w',  'white', false, null),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 2, 'white', 'c2', 0, 0, false,  'pawn',  'p3w',  'white', false, false),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1426,44 +1383,41 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 2, 'black', 'd2', true, 0, 0, false,  'pawn',  'p4w',  'white', false, null),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 2, 'black', 'd2', 0, 0, false,  'pawn',  'p4w',  'white', false, false),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1471,44 +1425,41 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, 2, 'white', 'e2', true, 0, 0, false,  'pawn',  'p5w',  'white', false, null),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 2, 'white', 'e2', 0, 0, false,  'pawn',  'p5w',  'white', false, false),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1516,44 +1467,41 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 2, 'black', 'f2', true, 0, 0, false,  'pawn',  'p6w',  'white', false, null),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 2, 'black', 'f2', 0, 0, false,  'pawn',  'p6w',  'white', false, false),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -1561,44 +1509,41 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>104</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 2, 'white', 'g2', true, 0, 0, false,  'pawn',  'p7w',  'white', false, null),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 2, 'white', 'g2', 0, 0, false,  'pawn',  'p7w',  'white', false, false),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1606,44 +1551,41 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, 2, 'black', 'h2', true, 0, 0, false,  'pawn',  'p8w',  'white', false, null),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 2, 'black', 'h2', 0, 0, false,  'pawn',  'p8w',  'white', false, false),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1651,44 +1593,41 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 3, 'black', 'a3', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 3, 'black', 'a3', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -1696,44 +1635,41 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(2, 3, 'white', 'b3', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 3, 'white', 'b3', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1741,44 +1677,41 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 3, 'black', 'c3', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 3, 'black', 'c3', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -1786,44 +1719,41 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 3, 'white', 'd3', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 3, 'white', 'd3', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1831,44 +1761,41 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, 3, 'black', 'e3', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 3, 'black', 'e3', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -1876,44 +1803,41 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 3, 'white', 'f3', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 3, 'white', 'f3', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -1921,44 +1845,41 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 3, 'black', 'g3', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 3, 'black', 'g3', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -1966,44 +1887,41 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, 3, 'white', 'h3', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 3, 'white', 'h3', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2011,44 +1929,41 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 4, 'white', 'a4', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 4, 'white', 'a4', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -2056,44 +1971,41 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(2, 4, 'black', 'b4', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 4, 'black', 'b4', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -2101,44 +2013,41 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 4, 'white', 'c4', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 4, 'white', 'c4', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -2146,44 +2055,41 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 4, 'black', 'd4', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 4, 'black', 'd4', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>5</v>
       </c>
@@ -2191,44 +2097,41 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, 4, 'white', 'e4', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 4, 'white', 'e4', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>6</v>
       </c>
@@ -2236,44 +2139,41 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 4, 'black', 'f4', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 4, 'black', 'f4', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>7</v>
       </c>
@@ -2281,44 +2181,41 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 4, 'white', 'g4', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 4, 'white', 'g4', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>8</v>
       </c>
@@ -2326,44 +2223,41 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
+        <v>89</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, 4, 'black', 'h4', false, 1, 0, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 4, 'black', 'h4', 1, 0, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -2371,44 +2265,41 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 5, 'black', 'a5', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 5, 'black', 'a5', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -2416,44 +2307,41 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(2, 5, 'white', 'b5', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 5, 'white', 'b5', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -2461,44 +2349,41 @@
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 5, 'black', 'c5', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 5, 'black', 'c5', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -2506,44 +2391,41 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 5, 'white', 'd5', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 5, 'white', 'd5', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -2551,44 +2433,41 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, 5, 'black', 'e5', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 5, 'black', 'e5', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -2596,44 +2475,41 @@
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 5, 'white', 'f5', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 5, 'white', 'f5', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>7</v>
       </c>
@@ -2641,44 +2517,41 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O40" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 5, 'black', 'g5', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 5, 'black', 'g5', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -2686,44 +2559,41 @@
         <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, 5, 'white', 'h5', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 5, 'white', 'h5', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -2731,44 +2601,41 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
         <v>2</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 6, 'white', 'a6', false, 0, 2, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 6, 'white', 'a6', 0, 2, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -2776,44 +2643,41 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(2, 6, 'black', 'b6', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 6, 'black', 'b6', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -2821,44 +2685,41 @@
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
         <v>2</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 6, 'white', 'c6', false, 0, 2, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 6, 'white', 'c6', 0, 2, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -2866,44 +2727,41 @@
         <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O45" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 6, 'black', 'd6', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 6, 'black', 'd6', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -2911,44 +2769,41 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O46" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, 6, 'white', 'e6', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 6, 'white', 'e6', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -2956,179 +2811,167 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 6, 'black', 'f6', 0, 2, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 6, 'white', 'g6', 0, 1, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 6, 'black', 'h6', 0, 2, false,  null,  null,  null, null, null),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O47" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 6, 'black', 'f6', false, 0, 2, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>7</v>
-      </c>
-      <c r="B48" s="2">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 6, 'white', 'g6', false, 0, 1, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>8</v>
-      </c>
-      <c r="B49" s="3">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O49" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, 6, 'black', 'h6', false, 0, 2, false,  null,  null,  null, null, null),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="I50" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O50" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 7, 'black', 'a7', true, 0, 0, false,  'pawn',  'p1b',  'black', false, null),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 7, 'black', 'a7', 0, 0, false,  'pawn',  'p1b',  'black', false, false),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -3136,44 +2979,41 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="3">
-        <v>0</v>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O51" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(2, 7, 'white', 'b7', true, 0, 0, false,  'pawn',  'p2b',  'black', false, null),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 7, 'white', 'b7', 0, 0, false,  'pawn',  'p2b',  'black', false, false),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -3181,44 +3021,41 @@
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="I52" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O52" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 7, 'black', 'c7', true, 0, 0, false,  'pawn',  'p3b',  'black', false, null),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 7, 'black', 'c7', 0, 0, false,  'pawn',  'p3b',  'black', false, false),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -3226,44 +3063,41 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="3">
-        <v>0</v>
+      <c r="G53" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O53" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 7, 'white', 'd7', true, 0, 0, false,  'pawn',  'p4b',  'black', false, null),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 7, 'white', 'd7', 0, 0, false,  'pawn',  'p4b',  'black', false, false),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -3271,224 +3105,209 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="I54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 7, 'black', 'e7', 0, 0, false,  'pawn',  'p5b',  'black', false, false),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 7, 'white', 'f7', 0, 0, false,  'pawn',  'p6b',  'black', false, false),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>7</v>
+      </c>
+      <c r="B56" s="2">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 7, 'black', 'g7', 0, 0, false,  'pawn',  'p7b',  'black', false, false),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 7, 'white', 'h7', 0, 0, false,  'pawn',  'p8b',  'black', false, false),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O54" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, 7, 'black', 'e7', true, 0, 0, false,  'pawn',  'p5b',  'black', false, null),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>6</v>
-      </c>
-      <c r="B55" s="3">
-        <v>7</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O55" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 7, 'white', 'f7', true, 0, 0, false,  'pawn',  'p6b',  'black', false, null),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>7</v>
-      </c>
-      <c r="B56" s="2">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O56" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 7, 'black', 'g7', true, 0, 0, false,  'pawn',  'p7b',  'black', false, null),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>8</v>
-      </c>
-      <c r="B57" s="3">
-        <v>7</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O57" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, 7, 'white', 'h7', true, 0, 0, false,  'pawn',  'p8b',  'black', false, null),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2">
-        <v>8</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="I58" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O58" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 8, 'white', 'a8', true, 0, 0, false,  'rook',  'r1b',  'black', null, false),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 8, 'white', 'a8', 0, 0, false,  'rook',  'r1b',  'black', null, false),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -3496,44 +3315,41 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O59" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(2, 8, 'black', 'b8', true, 0, 0, false,  'knight',  'c1b',  'black', null, null),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(2, 8, 'black', 'b8', 0, 0, false,  'knight',  'c1b',  'black', null, null),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>3</v>
       </c>
@@ -3541,44 +3357,41 @@
         <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
       </c>
-      <c r="G60" s="2">
-        <v>0</v>
+      <c r="G60" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O60" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(3, 8, 'white', 'c8', true, 0, 0, false,  'bishop',  'b1b',  'black', null, null),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 8, 'white', 'c8', 0, 0, false,  'bishop',  'b1b',  'black', null, null),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -3586,44 +3399,41 @@
         <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
+      <c r="G61" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O61" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, 8, 'black', 'd8', true, 0, 0, false,  'queen',  'q1b',  'black', null, null),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 8, 'black', 'd8', 0, 0, false,  'queen',  'q1b',  'black', null, null),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>5</v>
       </c>
@@ -3631,89 +3441,83 @@
         <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
       </c>
-      <c r="G62" s="2">
-        <v>0</v>
+      <c r="G62" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 8, 'white', 'e8', 0, 0, false,  'king',  'k1b',  'black', null, false),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>6</v>
+      </c>
+      <c r="B63" s="3">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O62" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, 8, 'white', 'e8', true, 0, 0, false,  'king',  'k1b',  'black', null, false),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>6</v>
-      </c>
-      <c r="B63" s="3">
-        <v>8</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I63" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O63" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, 8, 'black', 'f8', true, 0, 0, false,  'bishop',  'b2b',  'black', null, null),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 8, 'black', 'f8', 0, 0, false,  'bishop',  'b2b',  'black', null, null),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>7</v>
       </c>
@@ -3721,44 +3525,41 @@
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
       </c>
-      <c r="G64" s="2">
-        <v>0</v>
+      <c r="G64" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O64" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, 8, 'white', 'g8', true, 0, 0, false,  'knight',  'c2b',  'black', null, null),</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="N64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 8, 'white', 'g8', 0, 0, false,  'knight',  'c2b',  'black', null, null),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>8</v>
       </c>
@@ -3766,41 +3567,38 @@
         <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I65" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O65" s="7" t="str">
-        <f>"("&amp;A65&amp;", "&amp;B65&amp;", '"&amp;C65&amp;"', '"&amp;D65&amp;"', "&amp;E65&amp;", "&amp;F65&amp;", "&amp;G65&amp;", "&amp;H65&amp;", "&amp;IF(I65="null"," "&amp;I65&amp;","," '"&amp;I65&amp;"',")&amp;" "&amp;IF(J65="null"," "&amp;J65&amp;","," '"&amp;J65&amp;"',")&amp;" "&amp;IF(K65="null"," "&amp;K65&amp;","," '"&amp;K65&amp;"',")&amp;" "&amp;L65&amp;", "&amp;M65&amp;");"</f>
-        <v>(8, 8, 'black', 'h8', true, 0, 0, false,  'rook',  'r2b',  'black', null, false);</v>
+        <v>8</v>
+      </c>
+      <c r="N65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 8, 'black', 'h8', 0, 0, false,  'rook',  'r2b',  'black', null, false),</v>
       </c>
     </row>
   </sheetData>
